--- a/biology/Médecine/Syndrome_de_dysoralité_sensorielle/Syndrome_de_dysoralité_sensorielle.xlsx
+++ b/biology/Médecine/Syndrome_de_dysoralité_sensorielle/Syndrome_de_dysoralité_sensorielle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_de_dysoralit%C3%A9_sensorielle</t>
+          <t>Syndrome_de_dysoralité_sensorielle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de dysoralité sensorielle est une maladie d'origine neurologique caractérisée par une hyper réactivité, d'origine génétique[réf. souhaitée], des organes et systèmes du gout et de l'odorat. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_de_dysoralit%C3%A9_sensorielle</t>
+          <t>Syndrome_de_dysoralité_sensorielle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les signes précurseurs de cette maladie sont variables et se déclenchent souvent chez l'enfant : quantités alimentaires insuffisantes, nausées, vomissements, absence de plaisir lors des repas, hypersensibilité de la bouche et des lèvres, refus des aliments nouveaux, troubles de la déglutition[réf. souhaitée]...
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_de_dysoralit%C3%A9_sensorielle</t>
+          <t>Syndrome_de_dysoralité_sensorielle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette hypersensibilité sensorielle touche de nombreux enfants pourtant en bonne santé. « On estime que 25 % des enfants à développement normal sont touchés par ce trouble contre 50 % pour les enfants prématurés et jusqu'à 90 % des enfants polyhandicapés[1] ».
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette hypersensibilité sensorielle touche de nombreux enfants pourtant en bonne santé. « On estime que 25 % des enfants à développement normal sont touchés par ce trouble contre 50 % pour les enfants prématurés et jusqu'à 90 % des enfants polyhandicapés ».
 </t>
         </is>
       </c>
